--- a/automation_test_report_ss.xlsx
+++ b/automation_test_report_ss.xlsx
@@ -45,7 +45,7 @@
       <charset val="1"/>
       <family val="2"/>
       <b val="1"/>
-      <color theme="1"/>
+      <color rgb="FFC9211E"/>
       <sz val="11"/>
     </font>
   </fonts>
@@ -82,20 +82,41 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -107,70 +128,62 @@
   </cellStyles>
   <colors>
     <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FFC9211E"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -357,216 +370,781 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="13.5" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col width="10.91" customWidth="1" style="2" min="1" max="1"/>
-    <col width="44.3" customWidth="1" style="2" min="2" max="2"/>
-    <col width="14.64" customWidth="1" style="2" min="3" max="3"/>
-    <col width="22.83" customWidth="1" style="2" min="4" max="4"/>
+    <col width="10.91" customWidth="1" style="6" min="1" max="1"/>
+    <col width="44.3" customWidth="1" style="6" min="2" max="2"/>
+    <col width="14.64" customWidth="1" style="6" min="3" max="3"/>
+    <col width="22.83" customWidth="1" style="6" min="4" max="5"/>
+    <col width="27.56" customWidth="1" style="6" min="6" max="6"/>
+    <col width="25.74" customWidth="1" style="6" min="7" max="7"/>
+    <col width="24.56" customWidth="1" style="6" min="8" max="8"/>
+    <col width="20.92" customWidth="1" style="6" min="9" max="9"/>
+    <col width="24.65" customWidth="1" style="6" min="10" max="10"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="3">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>Test ID</t>
-        </is>
-      </c>
-      <c r="B1" s="4" t="inlineStr">
-        <is>
-          <t>Test Name</t>
-        </is>
-      </c>
-      <c r="C1" s="4" t="inlineStr">
-        <is>
-          <t>Result</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>Screenshot’s hyperlinks</t>
+    <row r="1" ht="15" customFormat="1" customHeight="1" s="7">
+      <c r="A1" s="8" t="inlineStr">
+        <is>
+          <t>Issue ID</t>
+        </is>
+      </c>
+      <c r="B1" s="8" t="inlineStr">
+        <is>
+          <t>Issue Description</t>
+        </is>
+      </c>
+      <c r="C1" s="8" t="inlineStr">
+        <is>
+          <t>Test Result</t>
+        </is>
+      </c>
+      <c r="D1" s="8" t="inlineStr">
+        <is>
+          <t>Screenshot</t>
+        </is>
+      </c>
+      <c r="E1" s="8" t="inlineStr">
+        <is>
+          <t>Severity Level</t>
+        </is>
+      </c>
+      <c r="F1" s="8" t="inlineStr">
+        <is>
+          <t>Steps to Reproduce</t>
+        </is>
+      </c>
+      <c r="G1" s="8" t="inlineStr">
+        <is>
+          <t>Expected Behavior</t>
+        </is>
+      </c>
+      <c r="H1" s="8" t="inlineStr">
+        <is>
+          <t>Actual Behavior</t>
+        </is>
+      </c>
+      <c r="I1" s="8" t="inlineStr">
+        <is>
+          <t>Device/Platform</t>
+        </is>
+      </c>
+      <c r="J1" s="8" t="inlineStr">
+        <is>
+          <t>Additional Notes/Comments</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="13.5" customHeight="1" s="3">
-      <c r="A2" t="inlineStr">
+    <row r="2" ht="13.5" customFormat="1" customHeight="1" s="9">
+      <c r="A2" s="9" t="inlineStr">
         <is>
           <t>TC-01</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="9" t="inlineStr">
         <is>
           <t>test_click_docile_element_tc_01</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="9" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="D2">
-        <f>HYPERLINK("test_click_docile_element_tc_01.png", "Screenshot")</f>
+      <c r="D2" s="9">
+        <f>HYPERLINK("test_click_docile_element_tc_01.png", "screenshot_tc_01")</f>
         <v/>
       </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F2" s="9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G2" s="10" t="inlineStr">
+        <is>
+          <t>open the Docile App</t>
+        </is>
+      </c>
+      <c r="H2" s="9" t="inlineStr">
+        <is>
+          <t>As Expected</t>
+        </is>
+      </c>
+      <c r="I2" s="9" t="inlineStr">
+        <is>
+          <t>Android Playstore App</t>
+        </is>
+      </c>
+      <c r="J2" s="9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
-    <row r="3" ht="13.5" customHeight="1" s="3"/>
-    <row r="4" ht="13.5" customHeight="1" s="3"/>
-    <row r="5" ht="15" customHeight="1" s="3"/>
-    <row r="6" ht="13.5" customHeight="1" s="3"/>
-    <row r="7" ht="13.5" customHeight="1" s="3"/>
-    <row r="8" ht="13.5" customHeight="1" s="3"/>
-    <row r="9" ht="13.5" customHeight="1" s="3"/>
-    <row r="10" ht="13.5" customHeight="1" s="3"/>
-    <row r="11" ht="13.5" customHeight="1" s="3"/>
-    <row r="12" ht="13.5" customHeight="1" s="3"/>
-    <row r="13" ht="13.5" customHeight="1" s="3"/>
-    <row r="14" ht="13.5" customHeight="1" s="3"/>
-    <row r="15" ht="13.5" customHeight="1" s="3"/>
-    <row r="16" ht="13.5" customHeight="1" s="3"/>
-    <row r="17" ht="13.5" customHeight="1" s="3"/>
-    <row r="18" ht="13.5" customHeight="1" s="3"/>
-    <row r="19" ht="13.5" customHeight="1" s="3"/>
-    <row r="20" ht="13.5" customHeight="1" s="3"/>
-    <row r="21" ht="13.5" customHeight="1" s="3"/>
-    <row r="22" ht="13.5" customHeight="1" s="3"/>
-    <row r="23" ht="13.5" customHeight="1" s="3"/>
-    <row r="24" ht="13.5" customHeight="1" s="3"/>
-    <row r="25" ht="13.5" customHeight="1" s="3"/>
-    <row r="26" ht="13.5" customHeight="1" s="3"/>
-    <row r="27" ht="13.5" customHeight="1" s="3"/>
-    <row r="28" ht="13.5" customHeight="1" s="3"/>
-    <row r="29" ht="13.5" customHeight="1" s="3"/>
-    <row r="30" ht="13.5" customHeight="1" s="3"/>
-    <row r="31" ht="13.5" customHeight="1" s="3"/>
-    <row r="32" ht="13.5" customHeight="1" s="3"/>
-    <row r="33" ht="13.5" customHeight="1" s="3"/>
-    <row r="34" ht="13.5" customHeight="1" s="3"/>
-    <row r="35" ht="13.5" customHeight="1" s="3"/>
-    <row r="36" ht="13.5" customHeight="1" s="3"/>
-    <row r="37" ht="13.5" customHeight="1" s="3"/>
-    <row r="38" ht="13.5" customHeight="1" s="3"/>
-    <row r="39" ht="13.5" customHeight="1" s="3"/>
-    <row r="40" ht="13.5" customHeight="1" s="3"/>
-    <row r="41" ht="13.5" customHeight="1" s="3"/>
-    <row r="42" ht="13.5" customHeight="1" s="3"/>
-    <row r="43" ht="13.5" customHeight="1" s="3"/>
-    <row r="44" ht="13.5" customHeight="1" s="3"/>
-    <row r="45" ht="13.5" customHeight="1" s="3"/>
-    <row r="46" ht="13.5" customHeight="1" s="3"/>
-    <row r="47" ht="13.5" customHeight="1" s="3"/>
-    <row r="48" ht="13.5" customHeight="1" s="3"/>
-    <row r="49" ht="13.5" customHeight="1" s="3"/>
-    <row r="50" ht="13.5" customHeight="1" s="3"/>
-    <row r="51" ht="13.5" customHeight="1" s="3"/>
-    <row r="52" ht="13.5" customHeight="1" s="3"/>
-    <row r="53" ht="13.5" customHeight="1" s="3"/>
-    <row r="54" ht="13.5" customHeight="1" s="3"/>
-    <row r="55" ht="13.5" customHeight="1" s="3"/>
-    <row r="56" ht="13.5" customHeight="1" s="3"/>
-    <row r="57" ht="13.5" customHeight="1" s="3"/>
-    <row r="58" ht="13.5" customHeight="1" s="3"/>
-    <row r="59" ht="13.5" customHeight="1" s="3"/>
-    <row r="60" ht="13.5" customHeight="1" s="3"/>
-    <row r="61" ht="13.5" customHeight="1" s="3"/>
-    <row r="62" ht="13.5" customHeight="1" s="3"/>
-    <row r="63" ht="13.5" customHeight="1" s="3"/>
-    <row r="64" ht="13.5" customHeight="1" s="3"/>
-    <row r="65" ht="13.5" customHeight="1" s="3"/>
-    <row r="66" ht="13.5" customHeight="1" s="3"/>
-    <row r="67" ht="13.5" customHeight="1" s="3"/>
-    <row r="68" ht="13.5" customHeight="1" s="3"/>
-    <row r="69" ht="13.5" customHeight="1" s="3"/>
-    <row r="70" ht="13.5" customHeight="1" s="3"/>
-    <row r="71" ht="13.5" customHeight="1" s="3"/>
-    <row r="72" ht="13.5" customHeight="1" s="3"/>
-    <row r="73" ht="13.5" customHeight="1" s="3"/>
-    <row r="74" ht="13.5" customHeight="1" s="3"/>
-    <row r="75" ht="13.5" customHeight="1" s="3"/>
-    <row r="76" ht="13.5" customHeight="1" s="3"/>
-    <row r="77" ht="13.5" customHeight="1" s="3"/>
-    <row r="78" ht="13.5" customHeight="1" s="3"/>
-    <row r="79" ht="13.5" customHeight="1" s="3"/>
-    <row r="80" ht="13.5" customHeight="1" s="3"/>
-    <row r="81" ht="13.5" customHeight="1" s="3"/>
-    <row r="82" ht="13.5" customHeight="1" s="3"/>
-    <row r="83" ht="13.5" customHeight="1" s="3"/>
-    <row r="84" ht="13.5" customHeight="1" s="3"/>
-    <row r="85" ht="13.5" customHeight="1" s="3"/>
-    <row r="86" ht="13.5" customHeight="1" s="3"/>
-    <row r="87" ht="13.5" customHeight="1" s="3"/>
-    <row r="88" ht="13.5" customHeight="1" s="3"/>
-    <row r="89" ht="13.5" customHeight="1" s="3"/>
-    <row r="90" ht="13.5" customHeight="1" s="3"/>
-    <row r="91" ht="13.5" customHeight="1" s="3"/>
-    <row r="92" ht="13.5" customHeight="1" s="3"/>
-    <row r="93" ht="13.5" customHeight="1" s="3"/>
-    <row r="94" ht="13.5" customHeight="1" s="3"/>
-    <row r="95" ht="13.5" customHeight="1" s="3"/>
-    <row r="96" ht="13.5" customHeight="1" s="3"/>
-    <row r="97" ht="13.5" customHeight="1" s="3"/>
-    <row r="98" ht="13.5" customHeight="1" s="3"/>
-    <row r="99" ht="13.5" customHeight="1" s="3"/>
-    <row r="100" ht="13.5" customHeight="1" s="3"/>
-    <row r="101" ht="13.5" customHeight="1" s="3"/>
-    <row r="102" ht="13.5" customHeight="1" s="3"/>
-    <row r="103" ht="13.5" customHeight="1" s="3"/>
-    <row r="104" ht="13.5" customHeight="1" s="3"/>
-    <row r="105" ht="13.5" customHeight="1" s="3"/>
-    <row r="106" ht="13.5" customHeight="1" s="3"/>
-    <row r="107" ht="13.5" customHeight="1" s="3"/>
-    <row r="108" ht="13.5" customHeight="1" s="3"/>
-    <row r="109" ht="13.5" customHeight="1" s="3"/>
-    <row r="110" ht="13.5" customHeight="1" s="3"/>
-    <row r="111" ht="13.5" customHeight="1" s="3"/>
-    <row r="112" ht="13.5" customHeight="1" s="3"/>
-    <row r="113" ht="13.5" customHeight="1" s="3"/>
-    <row r="114" ht="13.5" customHeight="1" s="3"/>
-    <row r="115" ht="13.5" customHeight="1" s="3"/>
-    <row r="116" ht="13.5" customHeight="1" s="3"/>
-    <row r="117" ht="13.5" customHeight="1" s="3"/>
-    <row r="118" ht="13.5" customHeight="1" s="3"/>
-    <row r="119" ht="13.5" customHeight="1" s="3"/>
-    <row r="120" ht="13.5" customHeight="1" s="3"/>
-    <row r="121" ht="13.5" customHeight="1" s="3"/>
-    <row r="122" ht="13.5" customHeight="1" s="3"/>
-    <row r="123" ht="13.5" customHeight="1" s="3"/>
-    <row r="124" ht="13.5" customHeight="1" s="3"/>
-    <row r="125" ht="13.5" customHeight="1" s="3"/>
-    <row r="126" ht="13.5" customHeight="1" s="3"/>
-    <row r="127" ht="13.5" customHeight="1" s="3"/>
-    <row r="128" ht="13.5" customHeight="1" s="3"/>
-    <row r="129" ht="13.5" customHeight="1" s="3"/>
-    <row r="130" ht="13.5" customHeight="1" s="3"/>
-    <row r="131" ht="13.5" customHeight="1" s="3"/>
-    <row r="132" ht="13.5" customHeight="1" s="3"/>
-    <row r="133" ht="13.5" customHeight="1" s="3"/>
-    <row r="134" ht="13.5" customHeight="1" s="3"/>
-    <row r="135" ht="13.5" customHeight="1" s="3"/>
-    <row r="136" ht="13.5" customHeight="1" s="3"/>
-    <row r="137" ht="13.5" customHeight="1" s="3"/>
-    <row r="138" ht="13.5" customHeight="1" s="3"/>
-    <row r="139" ht="13.5" customHeight="1" s="3"/>
-    <row r="140" ht="13.5" customHeight="1" s="3"/>
-    <row r="141" ht="13.5" customHeight="1" s="3"/>
-    <row r="142" ht="13.5" customHeight="1" s="3"/>
-    <row r="143" ht="13.5" customHeight="1" s="3"/>
-    <row r="144" ht="13.5" customHeight="1" s="3"/>
-    <row r="145" ht="13.5" customHeight="1" s="3"/>
-    <row r="146" ht="13.5" customHeight="1" s="3"/>
-    <row r="147" ht="13.5" customHeight="1" s="3"/>
-    <row r="148" ht="13.5" customHeight="1" s="3"/>
-    <row r="149" ht="13.5" customHeight="1" s="3"/>
-    <row r="150" ht="13.5" customHeight="1" s="3"/>
-    <row r="151" ht="13.5" customHeight="1" s="3"/>
-    <row r="152" ht="13.5" customHeight="1" s="3"/>
-    <row r="153" ht="13.5" customHeight="1" s="3"/>
-    <row r="154" ht="13.5" customHeight="1" s="3"/>
-    <row r="155" ht="13.5" customHeight="1" s="3"/>
+    <row r="3" ht="13.5" customHeight="1" s="11">
+      <c r="A3" s="6" t="inlineStr">
+        <is>
+          <t>TC-01</t>
+        </is>
+      </c>
+      <c r="B3" s="6" t="inlineStr">
+        <is>
+          <t>test_click_docile_element_tc_01</t>
+        </is>
+      </c>
+      <c r="C3" s="6" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="D3" s="6">
+        <f>HYPERLINK("test_click_docile_element_tc_01.png", "screenshot_tc_01")</f>
+        <v/>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F3" s="6" t="inlineStr">
+        <is>
+          <t>Try using ID or Xpath</t>
+        </is>
+      </c>
+      <c r="G3" s="6" t="inlineStr">
+        <is>
+          <t>open docile App</t>
+        </is>
+      </c>
+      <c r="H3" s="6" t="inlineStr">
+        <is>
+          <t>Not opening</t>
+        </is>
+      </c>
+      <c r="I3" s="6" t="inlineStr">
+        <is>
+          <t>APK</t>
+        </is>
+      </c>
+      <c r="J3" s="6" t="inlineStr">
+        <is>
+          <t>it's not clicking the app icon</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="13.5" customHeight="1" s="11">
+      <c r="A4" s="6" t="inlineStr">
+        <is>
+          <t>TC-01</t>
+        </is>
+      </c>
+      <c r="B4" s="6" t="inlineStr">
+        <is>
+          <t>test_click_docile_element_tc_01</t>
+        </is>
+      </c>
+      <c r="C4" s="6" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D4" s="6">
+        <f>HYPERLINK("test_click_docile_element_tc_01.png", "screenshot_tc_01")</f>
+        <v/>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G4" s="6" t="inlineStr">
+        <is>
+          <t>open the docile app</t>
+        </is>
+      </c>
+      <c r="H4" s="6" t="inlineStr">
+        <is>
+          <t>As Expected</t>
+        </is>
+      </c>
+      <c r="I4" s="6" t="inlineStr">
+        <is>
+          <t>APK</t>
+        </is>
+      </c>
+      <c r="J4" s="6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="13.5" customHeight="1" s="11">
+      <c r="A5" s="6" t="inlineStr">
+        <is>
+          <t>TC-02</t>
+        </is>
+      </c>
+      <c r="B5" s="6" t="inlineStr">
+        <is>
+          <t>test_getting_start_element_tc_02</t>
+        </is>
+      </c>
+      <c r="C5" s="6" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D5" s="6">
+        <f>HYPERLINK("test_click_docile_element_tc_02.png", "Screenshot_tc02.png")</f>
+        <v/>
+      </c>
+      <c r="E5" s="6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F5" s="6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G5" s="6" t="inlineStr">
+        <is>
+          <t>click on get started</t>
+        </is>
+      </c>
+      <c r="H5" s="6" t="inlineStr">
+        <is>
+          <t>As Expected</t>
+        </is>
+      </c>
+      <c r="I5" s="6" t="inlineStr">
+        <is>
+          <t>APK</t>
+        </is>
+      </c>
+      <c r="J5" s="6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="13.5" customHeight="1" s="11">
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>TC-03</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="inlineStr">
+        <is>
+          <t>test_signup_homepage_click_tc_03</t>
+        </is>
+      </c>
+      <c r="C6" s="6" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="D6" s="6">
+        <f>HYPERLINK("test_signup_ss.png", "test_signup_ss.png")</f>
+        <v/>
+      </c>
+      <c r="E6" s="6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F6" s="6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G6" s="6" t="inlineStr">
+        <is>
+          <t>signup successfully done</t>
+        </is>
+      </c>
+      <c r="H6" s="6" t="inlineStr">
+        <is>
+          <t>signup failed</t>
+        </is>
+      </c>
+      <c r="I6" s="6" t="inlineStr">
+        <is>
+          <t>APK</t>
+        </is>
+      </c>
+      <c r="J6" s="6" t="inlineStr">
+        <is>
+          <t>check the signup procedure manually once</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="13.5" customHeight="1" s="11">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>TC-01</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="inlineStr">
+        <is>
+          <t>test_click_docile_element_tc_01</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D7" s="6">
+        <f>HYPERLINK("test_click_docile_element_tc_01.png", "screenshot_tc_01")</f>
+        <v/>
+      </c>
+      <c r="E7" s="6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F7" s="6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G7" s="6" t="inlineStr">
+        <is>
+          <t>open the docile app</t>
+        </is>
+      </c>
+      <c r="H7" s="6" t="inlineStr">
+        <is>
+          <t>As Expected</t>
+        </is>
+      </c>
+      <c r="I7" s="6" t="inlineStr">
+        <is>
+          <t>APK</t>
+        </is>
+      </c>
+      <c r="J7" s="6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="13.5" customHeight="1" s="11">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>TC-02</t>
+        </is>
+      </c>
+      <c r="B8" s="6" t="inlineStr">
+        <is>
+          <t>test_getting_start_element_tc_02</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D8" s="6">
+        <f>HYPERLINK("test_click_docile_element_tc_02.png", "Screenshot_tc02.png")</f>
+        <v/>
+      </c>
+      <c r="E8" s="6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F8" s="6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G8" s="6" t="inlineStr">
+        <is>
+          <t>click on get started</t>
+        </is>
+      </c>
+      <c r="H8" s="6" t="inlineStr">
+        <is>
+          <t>As Expected</t>
+        </is>
+      </c>
+      <c r="I8" s="6" t="inlineStr">
+        <is>
+          <t>APK</t>
+        </is>
+      </c>
+      <c r="J8" s="6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="13.5" customHeight="1" s="11">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>TC-03</t>
+        </is>
+      </c>
+      <c r="B9" s="6" t="inlineStr">
+        <is>
+          <t>test_signup_homepage_click_tc_03</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="D9" s="6">
+        <f>HYPERLINK("test_signup_ss.png", "test_signup_ss.png")</f>
+        <v/>
+      </c>
+      <c r="E9" s="6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F9" s="6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G9" s="6" t="inlineStr">
+        <is>
+          <t>signup successfully done</t>
+        </is>
+      </c>
+      <c r="H9" s="6" t="inlineStr">
+        <is>
+          <t>signup failed</t>
+        </is>
+      </c>
+      <c r="I9" s="6" t="inlineStr">
+        <is>
+          <t>APK</t>
+        </is>
+      </c>
+      <c r="J9" s="6" t="inlineStr">
+        <is>
+          <t>check the signup procedure manually once</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="13.5" customHeight="1" s="11">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>TC-03</t>
+        </is>
+      </c>
+      <c r="B10" s="6" t="inlineStr">
+        <is>
+          <t>test_signup_homepage_click_tc_03</t>
+        </is>
+      </c>
+      <c r="C10" s="6" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="D10" s="6">
+        <f>HYPERLINK("test_signup_ss.png", "test_signup_ss.png")</f>
+        <v/>
+      </c>
+      <c r="E10" s="6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F10" s="6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G10" s="6" t="inlineStr">
+        <is>
+          <t>signup successfully done</t>
+        </is>
+      </c>
+      <c r="H10" s="6" t="inlineStr">
+        <is>
+          <t>signup failed</t>
+        </is>
+      </c>
+      <c r="I10" s="6" t="inlineStr">
+        <is>
+          <t>APK</t>
+        </is>
+      </c>
+      <c r="J10" s="6" t="inlineStr">
+        <is>
+          <t>check the signup procedure manually once</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="13.5" customHeight="1" s="11">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>TC-01</t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="inlineStr">
+        <is>
+          <t>test_click_docile_element_tc_01</t>
+        </is>
+      </c>
+      <c r="C11" s="6" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D11" s="6">
+        <f>HYPERLINK("test_click_docile_element_tc_01.png", "screenshot_tc_01")</f>
+        <v/>
+      </c>
+      <c r="E11" s="6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F11" s="6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G11" s="6" t="inlineStr">
+        <is>
+          <t>open the docile app</t>
+        </is>
+      </c>
+      <c r="H11" s="6" t="inlineStr">
+        <is>
+          <t>As Expected</t>
+        </is>
+      </c>
+      <c r="I11" s="6" t="inlineStr">
+        <is>
+          <t>APK</t>
+        </is>
+      </c>
+      <c r="J11" s="6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="13.5" customHeight="1" s="11">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>TC-01</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>test_click_docile_element_tc_01</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D12">
+        <f>HYPERLINK("test_click_docile_element_tc_01.png", "screenshot_tc_01")</f>
+        <v/>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>open the docile app</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>As Expected</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>APK</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="13.5" customHeight="1" s="11"/>
+    <row r="14" ht="13.5" customHeight="1" s="11"/>
+    <row r="15" ht="13.5" customHeight="1" s="11"/>
+    <row r="16" ht="13.5" customHeight="1" s="11"/>
+    <row r="17" ht="13.5" customHeight="1" s="11"/>
+    <row r="18" ht="13.5" customHeight="1" s="11"/>
+    <row r="19" ht="13.5" customHeight="1" s="11"/>
+    <row r="20" ht="13.5" customHeight="1" s="11"/>
+    <row r="21" ht="13.5" customHeight="1" s="11"/>
+    <row r="22" ht="13.5" customHeight="1" s="11"/>
+    <row r="23" ht="13.5" customHeight="1" s="11"/>
+    <row r="24" ht="13.5" customHeight="1" s="11"/>
+    <row r="25" ht="13.5" customHeight="1" s="11"/>
+    <row r="26" ht="13.5" customHeight="1" s="11"/>
+    <row r="27" ht="13.5" customHeight="1" s="11"/>
+    <row r="28" ht="13.5" customHeight="1" s="11"/>
+    <row r="29" ht="13.5" customHeight="1" s="11"/>
+    <row r="30" ht="13.5" customHeight="1" s="11"/>
+    <row r="31" ht="13.5" customHeight="1" s="11"/>
+    <row r="32" ht="13.5" customHeight="1" s="11"/>
+    <row r="33" ht="13.5" customHeight="1" s="11"/>
+    <row r="34" ht="13.5" customHeight="1" s="11"/>
+    <row r="35" ht="13.5" customHeight="1" s="11"/>
+    <row r="36" ht="13.5" customHeight="1" s="11"/>
+    <row r="37" ht="13.5" customHeight="1" s="11"/>
+    <row r="38" ht="13.5" customHeight="1" s="11"/>
+    <row r="39" ht="13.5" customHeight="1" s="11"/>
+    <row r="40" ht="13.5" customHeight="1" s="11"/>
+    <row r="41" ht="13.5" customHeight="1" s="11"/>
+    <row r="42" ht="13.5" customHeight="1" s="11"/>
+    <row r="43" ht="13.5" customHeight="1" s="11"/>
+    <row r="44" ht="13.5" customHeight="1" s="11"/>
+    <row r="45" ht="13.5" customHeight="1" s="11"/>
+    <row r="46" ht="13.5" customHeight="1" s="11"/>
+    <row r="47" ht="13.5" customHeight="1" s="11"/>
+    <row r="48" ht="13.5" customHeight="1" s="11"/>
+    <row r="49" ht="13.5" customHeight="1" s="11"/>
+    <row r="50" ht="13.5" customHeight="1" s="11"/>
+    <row r="51" ht="13.5" customHeight="1" s="11"/>
+    <row r="52" ht="13.5" customHeight="1" s="11"/>
+    <row r="53" ht="13.5" customHeight="1" s="11"/>
+    <row r="54" ht="13.5" customHeight="1" s="11"/>
+    <row r="55" ht="13.5" customHeight="1" s="11"/>
+    <row r="56" ht="13.5" customHeight="1" s="11"/>
+    <row r="57" ht="13.5" customHeight="1" s="11"/>
+    <row r="58" ht="13.5" customHeight="1" s="11"/>
+    <row r="59" ht="13.5" customHeight="1" s="11"/>
+    <row r="60" ht="13.5" customHeight="1" s="11"/>
+    <row r="61" ht="13.5" customHeight="1" s="11"/>
+    <row r="62" ht="13.5" customHeight="1" s="11"/>
+    <row r="63" ht="13.5" customHeight="1" s="11"/>
+    <row r="64" ht="13.5" customHeight="1" s="11"/>
+    <row r="65" ht="13.5" customHeight="1" s="11"/>
+    <row r="66" ht="13.5" customHeight="1" s="11"/>
+    <row r="67" ht="13.5" customHeight="1" s="11"/>
+    <row r="68" ht="13.5" customHeight="1" s="11"/>
+    <row r="69" ht="13.5" customHeight="1" s="11"/>
+    <row r="70" ht="13.5" customHeight="1" s="11"/>
+    <row r="71" ht="13.5" customHeight="1" s="11"/>
+    <row r="72" ht="13.5" customHeight="1" s="11"/>
+    <row r="73" ht="13.5" customHeight="1" s="11"/>
+    <row r="74" ht="13.5" customHeight="1" s="11"/>
+    <row r="75" ht="13.5" customHeight="1" s="11"/>
+    <row r="76" ht="13.5" customHeight="1" s="11"/>
+    <row r="77" ht="13.5" customHeight="1" s="11"/>
+    <row r="78" ht="13.5" customHeight="1" s="11"/>
+    <row r="79" ht="13.5" customHeight="1" s="11"/>
+    <row r="80" ht="13.5" customHeight="1" s="11"/>
+    <row r="81" ht="13.5" customHeight="1" s="11"/>
+    <row r="82" ht="13.5" customHeight="1" s="11"/>
+    <row r="83" ht="13.5" customHeight="1" s="11"/>
+    <row r="84" ht="13.5" customHeight="1" s="11"/>
+    <row r="85" ht="13.5" customHeight="1" s="11"/>
+    <row r="86" ht="13.5" customHeight="1" s="11"/>
+    <row r="87" ht="13.5" customHeight="1" s="11"/>
+    <row r="88" ht="13.5" customHeight="1" s="11"/>
+    <row r="89" ht="13.5" customHeight="1" s="11"/>
+    <row r="90" ht="13.5" customHeight="1" s="11"/>
+    <row r="91" ht="13.5" customHeight="1" s="11"/>
+    <row r="92" ht="13.5" customHeight="1" s="11"/>
+    <row r="93" ht="13.5" customHeight="1" s="11"/>
+    <row r="94" ht="13.5" customHeight="1" s="11"/>
+    <row r="95" ht="13.5" customHeight="1" s="11"/>
+    <row r="96" ht="13.5" customHeight="1" s="11"/>
+    <row r="97" ht="13.5" customHeight="1" s="11"/>
+    <row r="98" ht="13.5" customHeight="1" s="11"/>
+    <row r="99" ht="13.5" customHeight="1" s="11"/>
+    <row r="100" ht="13.5" customHeight="1" s="11"/>
+    <row r="101" ht="13.5" customHeight="1" s="11"/>
+    <row r="102" ht="13.5" customHeight="1" s="11"/>
+    <row r="103" ht="13.5" customHeight="1" s="11"/>
+    <row r="104" ht="13.5" customHeight="1" s="11"/>
+    <row r="105" ht="13.5" customHeight="1" s="11"/>
+    <row r="106" ht="13.5" customHeight="1" s="11"/>
+    <row r="107" ht="13.5" customHeight="1" s="11"/>
+    <row r="108" ht="13.5" customHeight="1" s="11"/>
+    <row r="109" ht="13.5" customHeight="1" s="11"/>
+    <row r="110" ht="13.5" customHeight="1" s="11"/>
+    <row r="111" ht="13.5" customHeight="1" s="11"/>
+    <row r="112" ht="13.5" customHeight="1" s="11"/>
+    <row r="113" ht="13.5" customHeight="1" s="11"/>
+    <row r="114" ht="13.5" customHeight="1" s="11"/>
+    <row r="115" ht="13.5" customHeight="1" s="11"/>
+    <row r="116" ht="13.5" customHeight="1" s="11"/>
+    <row r="117" ht="13.5" customHeight="1" s="11"/>
+    <row r="118" ht="13.5" customHeight="1" s="11"/>
+    <row r="119" ht="13.5" customHeight="1" s="11"/>
+    <row r="120" ht="13.5" customHeight="1" s="11"/>
+    <row r="121" ht="13.5" customHeight="1" s="11"/>
+    <row r="122" ht="13.5" customHeight="1" s="11"/>
+    <row r="123" ht="13.5" customHeight="1" s="11"/>
+    <row r="124" ht="13.5" customHeight="1" s="11"/>
+    <row r="125" ht="13.5" customHeight="1" s="11"/>
+    <row r="126" ht="13.5" customHeight="1" s="11"/>
+    <row r="127" ht="13.5" customHeight="1" s="11"/>
+    <row r="128" ht="13.5" customHeight="1" s="11"/>
+    <row r="129" ht="13.5" customHeight="1" s="11"/>
+    <row r="130" ht="13.5" customHeight="1" s="11"/>
+    <row r="131" ht="13.5" customHeight="1" s="11"/>
+    <row r="132" ht="13.5" customHeight="1" s="11"/>
+    <row r="133" ht="13.5" customHeight="1" s="11"/>
+    <row r="134" ht="13.5" customHeight="1" s="11"/>
+    <row r="135" ht="13.5" customHeight="1" s="11"/>
+    <row r="136" ht="13.5" customHeight="1" s="11"/>
+    <row r="137" ht="13.5" customHeight="1" s="11"/>
+    <row r="138" ht="13.5" customHeight="1" s="11"/>
+    <row r="139" ht="13.5" customHeight="1" s="11"/>
+    <row r="140" ht="13.5" customHeight="1" s="11"/>
+    <row r="141" ht="13.5" customHeight="1" s="11"/>
+    <row r="142" ht="13.5" customHeight="1" s="11"/>
+    <row r="143" ht="13.5" customHeight="1" s="11"/>
+    <row r="144" ht="13.5" customHeight="1" s="11"/>
+    <row r="145" ht="13.5" customHeight="1" s="11"/>
+    <row r="146" ht="13.5" customHeight="1" s="11"/>
+    <row r="147" ht="13.5" customHeight="1" s="11"/>
+    <row r="148" ht="13.5" customHeight="1" s="11"/>
+    <row r="149" ht="13.5" customHeight="1" s="11"/>
+    <row r="1048571" ht="12.75" customHeight="1" s="11"/>
+    <row r="1048572" ht="12.75" customHeight="1" s="11"/>
+    <row r="1048573" ht="12.75" customHeight="1" s="11"/>
+    <row r="1048574" ht="12.75" customHeight="1" s="11"/>
+    <row r="1048575" ht="12.75" customHeight="1" s="11"/>
+    <row r="1048576" ht="12.75" customHeight="1" s="11"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
